--- a/bots/crawl_ch/output/bread_coop_2023-02-26.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O391"/>
+  <dimension ref="A1:O390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6587,45 +6587,45 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4296700</t>
+          <t>6820412</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Old El Paso Weizen-Tortillas Mini 8 Stück</t>
+          <t>Betty Bossi Frischback Semmeli IP-Suisse</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-weizen-tortillas-mini-8-stueck/p/4296700</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-semmeli-ip-suisse/p/6820412</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6645,56 +6645,60 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Old El Paso Weizen-Tortillas Mini 8 Stück 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
+          <t>Betty Bossi Frischback Semmeli IP-Suisse 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6820412</t>
+          <t>4296700</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Semmeli IP-Suisse</t>
+          <t>Old El Paso Weizen-Tortillas Mini 8 Stück</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-semmeli-ip-suisse/p/6820412</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-weizen-tortillas-mini-8-stueck/p/4296700</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6704,7 +6708,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6714,22 +6718,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Semmeli IP-Suisse 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Weizen-Tortillas Mini 8 Stück 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12831,45 +12831,45 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>3664904</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>Appenzeller Bärli-Biber Mini</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12889,60 +12889,60 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3664904</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12962,46 +12962,42 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>3041124</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Naturaplan Bio Sonnenblumenbrot</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -13015,7 +13011,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.64/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13025,7 +13021,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13035,39 +13031,43 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr"/>
+          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3041124</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E178" t="n">
         <v>4.5</v>
@@ -13079,12 +13079,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.64/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13104,60 +13104,60 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot 3.20 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E179" t="n">
         <v>4.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13177,60 +13177,56 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13240,7 +13236,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13250,56 +13246,56 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13309,7 +13305,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13319,18 +13315,22 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13399,45 +13399,45 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13457,56 +13457,56 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13526,56 +13526,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E185" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13600,41 +13600,37 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -13643,12 +13639,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13658,7 +13654,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13668,18 +13664,22 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13963,31 +13963,31 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -13996,12 +13996,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14021,56 +14021,56 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E192" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14090,42 +14090,46 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr"/>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E193" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -14134,12 +14138,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14149,7 +14153,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14159,56 +14163,56 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14218,7 +14222,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14228,22 +14232,18 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16584,31 +16584,31 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E228" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -16617,12 +16617,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16642,56 +16642,60 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Milka Choco Brownie 2x  150g</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16701,7 +16705,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16711,60 +16715,56 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Milka Choco Brownie 2x  150g 27% Aktion 4.95 Schweizer Franken statt 6.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 2x  150g</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E230" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16789,13 +16789,13 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 2x  150g 27% Aktion 4.95 Schweizer Franken statt 6.80 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17716,43 +17716,45 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>15</v>
+      </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17762,7 +17764,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17772,60 +17774,58 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>15</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17835,7 +17835,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17845,22 +17845,22 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18006,45 +18006,45 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E248" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18064,60 +18064,56 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18127,7 +18123,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18137,18 +18133,22 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18217,45 +18217,45 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E251" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18275,56 +18275,60 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18334,7 +18338,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18344,60 +18348,56 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E253" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18417,22 +18417,22 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18501,7 +18501,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18570,7 +18570,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19146,35 +19146,35 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E264" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19204,56 +19204,56 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E265" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19273,60 +19273,56 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E266" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19336,7 +19332,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19346,56 +19342,56 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E267" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19405,7 +19401,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19415,56 +19411,56 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19474,7 +19470,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19484,46 +19480,42 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E269" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -19532,12 +19524,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19547,7 +19539,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19557,54 +19549,60 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>2</v>
+      </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19614,7 +19612,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19624,35 +19622,39 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
@@ -19666,12 +19668,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19681,7 +19683,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19696,51 +19698,49 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>20</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19750,7 +19750,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19765,37 +19765,37 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E273" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -19804,12 +19804,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19829,42 +19829,42 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E274" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19873,12 +19873,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19888,7 +19888,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19898,18 +19898,18 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20114,45 +20114,45 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20172,56 +20172,58 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20231,7 +20233,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20241,58 +20243,56 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20312,56 +20312,60 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20371,7 +20375,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20381,22 +20385,18 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Panettone 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20465,45 +20465,45 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E283" t="n">
         <v>4.5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20513,7 +20513,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20523,56 +20523,60 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E284" t="n">
         <v>4.5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20582,7 +20586,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20592,22 +20596,18 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21094,45 +21094,45 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21152,60 +21152,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E293" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21225,22 +21225,22 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21313,45 +21313,45 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E295" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21371,56 +21371,56 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E296" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21440,56 +21440,56 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21499,7 +21499,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21509,22 +21509,18 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21593,45 +21589,45 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E299" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21641,7 +21637,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21651,18 +21647,22 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21804,45 +21804,43 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
       <c r="E302" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21852,7 +21850,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21862,54 +21860,60 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21919,7 +21923,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21929,22 +21933,18 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22429,45 +22429,43 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22477,7 +22475,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22487,54 +22485,60 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22544,7 +22548,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22554,22 +22558,18 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22638,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23058,45 +23058,45 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23106,7 +23106,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23116,60 +23116,56 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23179,7 +23175,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23189,56 +23185,58 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
-        </is>
-      </c>
-      <c r="D322" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23248,7 +23246,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23258,58 +23256,56 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>7</v>
+      </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23319,7 +23315,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23329,56 +23325,56 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E324" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23388,7 +23384,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23398,18 +23394,22 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23482,7 +23482,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23689,7 +23689,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24249,7 +24249,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24391,31 +24391,31 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -24424,12 +24424,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24449,35 +24449,35 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -24488,17 +24488,17 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24518,56 +24518,56 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24587,18 +24587,18 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25014,7 +25014,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25574,45 +25574,45 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E356" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25622,7 +25622,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25632,56 +25632,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E357" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25701,18 +25701,18 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26138,43 +26138,45 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6583113</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot/p/6583113</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>2</v>
+      </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26184,7 +26186,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26194,60 +26196,58 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
-        </is>
-      </c>
-      <c r="D365" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26257,7 +26257,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26267,58 +26267,56 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>3</v>
+      </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26328,7 +26326,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26338,56 +26336,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E367" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26397,7 +26395,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26407,56 +26405,56 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26466,7 +26464,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26476,56 +26474,58 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26535,7 +26535,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26545,58 +26545,56 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26606,7 +26604,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26616,56 +26614,56 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E371" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26675,7 +26673,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26685,56 +26683,56 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>4486076</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Zweifel Appenzeller Biberli 10 Stück</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E372" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26744,7 +26742,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26759,51 +26757,55 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr"/>
+          <t>Zweifel Appenzeller Biberli 10 Stück 17.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4486076</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26813,7 +26815,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26828,7 +26830,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück 17.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -26838,24 +26840,24 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -26866,17 +26868,17 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26886,7 +26888,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26896,22 +26898,18 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26980,45 +26978,45 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E376" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27028,7 +27026,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27038,56 +27036,56 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27097,7 +27095,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27107,56 +27105,56 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27166,7 +27164,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27176,56 +27174,54 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27235,7 +27231,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27245,35 +27241,35 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>6515840</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Bauli Croissant Classico 6 Stück</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -27282,17 +27278,17 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27302,7 +27298,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27312,54 +27308,56 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Bauli Croissant Classico 6 Stück 20% Aktion 2.35 Schweizer Franken statt 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6515840</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>3</v>
+      </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27369,7 +27367,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27379,18 +27377,18 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück 20% Aktion 2.35 Schweizer Franken statt 2.95 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27459,31 +27457,29 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>7071615</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Betty Bossi Pinsateig Kugel</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
-        </is>
-      </c>
-      <c r="D383" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-pinsateig-kugel/p/7071615</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -27492,12 +27488,12 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>0.64/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27507,7 +27503,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27517,35 +27513,39 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr"/>
+          <t>Betty Bossi Pinsateig Kugel 11% Aktion 3.20 Schweizer Franken statt 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>7071615</t>
+          <t>7031407</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Betty Bossi Pinsateig Kugel</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-pinsateig-kugel/p/7071615</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -27559,12 +27559,12 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>0.64/100g</t>
+          <t>0.54/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27574,7 +27574,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Betty Bossi Pinsateig Kugel 11% Aktion 3.20 Schweizer Franken statt 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig - Online kein Bestand 10% Aktion 2.95 Schweizer Franken statt 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27599,24 +27599,24 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>7031407</t>
+          <t>6677259</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -27630,12 +27630,12 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>0.54/100g</t>
+          <t>2.10/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27655,39 +27655,35 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig - Online kein Bestand 10% Aktion 2.95 Schweizer Franken statt 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Ostertaube 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6677259</t>
+          <t>4080979</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ostertaube</t>
+          <t>Bauli La Colomba</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
@@ -27696,17 +27692,17 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>2.10/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27716,7 +27712,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27731,30 +27727,30 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Ostertaube 2.10 Schweizer Franken</t>
+          <t>Bauli La Colomba 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>4080979</t>
+          <t>6689542</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Bauli La Colomba</t>
+          <t>Betty Bossi Osterkuchen</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
+          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27763,17 +27759,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27783,7 +27779,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27793,40 +27789,42 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Bauli La Colomba 7.95 Schweizer Franken</t>
+          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6689542</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>14</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27835,12 +27833,12 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27850,7 +27848,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27860,56 +27858,58 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>3735796</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Niederegger Marzipan Vollmilchbrot</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="E389" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27929,39 +27929,35 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3735796</t>
+          <t>3002037</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot</t>
+          <t>Niederegger Schwarzbrot Marzipan</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
@@ -28005,80 +28001,13 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-26 12:56:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>3002037</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>Niederegger Schwarzbrot Marzipan</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="n">
-        <v>0</v>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>Niederegger</t>
-        </is>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>4.76/100g</t>
-        </is>
-      </c>
-      <c r="I391" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M391" t="inlineStr">
-        <is>
-          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr"/>
-      <c r="O391" t="inlineStr">
-        <is>
-          <t>2023-02-26 12:56:09</t>
+          <t>2023-02-26 20:49:30</t>
         </is>
       </c>
     </row>
